--- a/Asset/progress.xlsx
+++ b/Asset/progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Game Design\Homework\2024 Winter\Storytelling\Github\Asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Game Design\Homework\2024 Winter\Storytelling\TRAN\Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A70BA0-7BF9-4E50-BD8F-C3FE5BF30EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569C29AF-0F26-48AA-AD17-6C2B011FEDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新建 Microsoft Excel 工作表" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Alice</t>
   </si>
@@ -77,6 +77,17 @@
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSL2</t>
   </si>
 </sst>
 </file>
@@ -171,7 +182,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,15 +673,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -696,8 +707,12 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -709,8 +724,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -723,7 +742,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -736,7 +755,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -749,18 +768,31 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
